--- a/Excel/cars-sample_Excel_scatterplot.xlsx
+++ b/Excel/cars-sample_Excel_scatterplot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenericFiles\Documents\573\02-datavis-7ways\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenericFiles\Documents\573\02-datavis-7ways-1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1235B-54C1-4573-B147-A6690F71D728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D162B12A-51CF-4853-9214-ACC0C880C1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScatterPlot" sheetId="1" r:id="rId1"/>
@@ -6607,7 +6607,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="565822584"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1500"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="5"/>
@@ -7806,8 +7806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/cars-sample_Excel_scatterplot.xlsx
+++ b/Excel/cars-sample_Excel_scatterplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenericFiles\Documents\573\02-datavis-7ways-1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D162B12A-51CF-4853-9214-ACC0C880C1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD3D611-96DD-4D61-B744-91D533806C1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScatterPlot" sheetId="1" r:id="rId1"/>
@@ -824,6 +824,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2377B4"/>
+      <color rgb="FFFF7F0E"/>
+      <color rgb="FF2CA02C"/>
+      <color rgb="FFD62728"/>
+      <color rgb="FF9467BD"/>
       <color rgb="FFEA0AC5"/>
     </mruColors>
   </colors>
@@ -865,8 +870,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000">
-                <a:alpha val="50000"/>
+              <a:srgbClr val="2377B4">
+                <a:alpha val="49804"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -1772,9 +1777,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FF7F0E">
+                <a:alpha val="49804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -2679,8 +2684,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="92D050">
-                <a:alpha val="50000"/>
+              <a:srgbClr val="2CA02C">
+                <a:alpha val="49804"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -3586,9 +3591,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
+              <a:srgbClr val="D62728">
+                <a:alpha val="49804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -4493,8 +4498,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="EA0AC5">
-                <a:alpha val="50000"/>
+              <a:srgbClr val="9467BD">
+                <a:alpha val="49804"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -7807,7 +7812,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/cars-sample_Excel_scatterplot.xlsx
+++ b/Excel/cars-sample_Excel_scatterplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenericFiles\Documents\573\02-datavis-7ways-1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD3D611-96DD-4D61-B744-91D533806C1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF484F2E-5F46-4CC1-BBEB-4AA104593270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScatterPlot" sheetId="1" r:id="rId1"/>
@@ -7325,11 +7325,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.91902</cdr:x>
+      <cdr:x>0.91329</cdr:x>
       <cdr:y>0.61202</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9865</cdr:x>
+      <cdr:x>0.98077</cdr:x>
       <cdr:y>0.74464</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -7345,8 +7345,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8431531" y="4131945"/>
-          <a:ext cx="619125" cy="895350"/>
+          <a:off x="8318281" y="4293939"/>
+          <a:ext cx="614610" cy="930463"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7401,12 +7401,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.93559</cdr:x>
-      <cdr:y>0.61693</cdr:y>
+      <cdr:x>0.92528</cdr:x>
+      <cdr:y>0.62139</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.7481</cdr:y>
+      <cdr:x>0.98969</cdr:x>
+      <cdr:y>0.75256</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7421,8 +7421,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8578216" y="4170936"/>
-          <a:ext cx="590549" cy="886824"/>
+          <a:off x="8427446" y="4359704"/>
+          <a:ext cx="586649" cy="920290"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7457,11 +7457,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.92293</cdr:x>
+      <cdr:x>0.90803</cdr:x>
       <cdr:y>0.62821</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.93955</cdr:x>
+      <cdr:x>0.92465</cdr:x>
       <cdr:y>0.64795</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -7477,12 +7477,15 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8462168" y="4247222"/>
-          <a:ext cx="152368" cy="133500"/>
+          <a:off x="8270384" y="4407528"/>
+          <a:ext cx="151376" cy="138496"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
       </cdr:spPr>
       <cdr:style>
         <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
@@ -7503,6 +7506,195 @@
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90984</cdr:x>
+      <cdr:y>0.59017</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98548</cdr:x>
+      <cdr:y>0.62142</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A76A233-6C07-4D8C-8E5E-C99AD2FF2569}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8286856" y="4140661"/>
+          <a:ext cx="688931" cy="219206"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Weight</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9018</cdr:x>
+      <cdr:y>0.66605</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93161</cdr:x>
+      <cdr:y>0.70393</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Oval 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30523077-7999-447A-B6CF-3C387E06B43F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8213594" y="4673017"/>
+          <a:ext cx="271589" cy="265731"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="en-US"/>
         </a:p>

--- a/Excel/cars-sample_Excel_scatterplot.xlsx
+++ b/Excel/cars-sample_Excel_scatterplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenericFiles\Documents\573\02-datavis-7ways-1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF484F2E-5F46-4CC1-BBEB-4AA104593270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28215E-0F22-43A4-A83D-5079E51B3ED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScatterPlot" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="87">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>ranger</t>
+  </si>
+  <si>
+    <t>This row was imputed, remove it if you want to skip rows with NA values for MPG</t>
   </si>
 </sst>
 </file>
@@ -773,8 +776,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -882,10 +886,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>ScatterPlot!$D$2:$D$96</c:f>
+              <c:f>ScatterPlot!$D$2:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -899,14 +903,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2234</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -1055,14 +1059,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="59">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -1169,6 +1173,12 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -1176,10 +1186,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ScatterPlot!$B$2:$B$96</c:f>
+              <c:f>ScatterPlot!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -1187,282 +1197,288 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>26.5</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>31.5</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>25.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>21.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>25.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>18.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>21.1</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>29.5</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>22.3</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>17.600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>15.5</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>38.1</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>26.4</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>29.8</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>44.6</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>23.6</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>39.1</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>35.1</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>37.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>34.4</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>29.9</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>33.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -1470,10 +1486,10 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>ScatterPlot!$D$2:$D$96</c:f>
+              <c:f>ScatterPlot!$D$2:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -1487,14 +1503,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2234</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -1643,14 +1659,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="59">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -1757,6 +1773,12 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -1789,10 +1811,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>ScatterPlot!$E$2:$E$96</c:f>
+              <c:f>ScatterPlot!$E$2:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>3449</c:v>
                 </c:pt>
@@ -1800,218 +1822,218 @@
                   <c:v>4341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>4034</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2587</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4615</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2046</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>3302</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>4154</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>4746</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>3139</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2226</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>4129</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>4294</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2395</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4042</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>4363</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>3021</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>4906</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2310</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2875</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>2451</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>4141</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>4638</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>3158</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>4657</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>3169</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>2639</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>2984</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>4215</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>3012</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>3574</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>2565</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="50">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>3870</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>3525</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>4335</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2755</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>2965</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>2720</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>3205</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="64">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2890</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>3725</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>4054</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="70">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>2870</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="73">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2019,14 +2041,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>2905</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="78">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2034,32 +2056,32 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>2045</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>2380</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="84">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>3060</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>2865</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="89">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2067,15 +2089,21 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>2835</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2790</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>2625</c:v>
                 </c:pt>
               </c:numCache>
@@ -2083,10 +2111,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ScatterPlot!$B$2:$B$96</c:f>
+              <c:f>ScatterPlot!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -2094,282 +2122,288 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>26.5</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>31.5</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>25.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>21.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>25.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>18.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>21.1</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>29.5</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>22.3</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>17.600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>15.5</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>38.1</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>26.4</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>29.8</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>44.6</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>23.6</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>39.1</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>35.1</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>37.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>34.4</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>29.9</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>33.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -2377,10 +2411,10 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>ScatterPlot!$E$2:$E$96</c:f>
+              <c:f>ScatterPlot!$E$2:$E$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>3449</c:v>
                 </c:pt>
@@ -2388,218 +2422,218 @@
                   <c:v>4341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>4034</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2587</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4615</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2046</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>3302</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>4154</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>4746</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>3139</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2226</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>4129</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>4294</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2395</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4042</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>4363</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>3021</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>4906</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2310</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2875</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>2451</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>4141</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>4638</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>3158</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>4657</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>3169</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>2639</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>2984</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>4215</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>3012</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>3574</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>2565</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="50">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>3870</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>3525</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>4335</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2755</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>2965</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>2720</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>3205</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="64">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>2890</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>3725</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>4054</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="70">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>2870</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="73">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2607,14 +2641,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>2905</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="78">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2622,32 +2656,32 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>2045</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>2380</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="84">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>3060</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>2865</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="89">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2655,15 +2689,21 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>2835</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2790</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>2625</c:v>
                 </c:pt>
               </c:numCache>
@@ -2696,10 +2736,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>ScatterPlot!$F$2:$F$96</c:f>
+              <c:f>ScatterPlot!$F$2:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2800,14 +2840,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>2489</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="36">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2824,23 +2864,23 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1795</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1795</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="47">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2854,14 +2894,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2045</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2875,14 +2915,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="61">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2893,14 +2933,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>2135</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="67">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2923,38 +2963,38 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1850</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2290</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1760</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="81">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2210</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="85">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -2962,27 +3002,33 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2205</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1965</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>1965</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="93">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -2990,10 +3036,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ScatterPlot!$B$2:$B$96</c:f>
+              <c:f>ScatterPlot!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -3001,282 +3047,288 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>26.5</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>31.5</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>25.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>21.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>25.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>18.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>21.1</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>29.5</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>22.3</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>17.600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>15.5</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>38.1</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>26.4</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>29.8</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>44.6</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>23.6</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>39.1</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>35.1</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>37.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>34.4</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>29.9</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>33.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -3284,10 +3336,10 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>ScatterPlot!$F$2:$F$96</c:f>
+              <c:f>ScatterPlot!$F$2:$F$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3388,14 +3440,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>2489</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="36">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3412,23 +3464,23 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1795</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1795</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="47">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3442,14 +3494,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2045</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="54">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3463,14 +3515,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="61">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3481,14 +3533,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>2135</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="67">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3511,38 +3563,38 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1850</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2290</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1760</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="81">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>2210</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="85">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3550,27 +3602,33 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2205</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1965</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>1965</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="93">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -3603,10 +3661,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>ScatterPlot!$G$2:$G$96</c:f>
+              <c:f>ScatterPlot!$G$2:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3755,14 +3813,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>3820</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3812,14 +3870,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>3530</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="71">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3827,14 +3885,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3250</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="76">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -3890,6 +3948,12 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -3897,10 +3961,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ScatterPlot!$B$2:$B$96</c:f>
+              <c:f>ScatterPlot!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -3908,282 +3972,288 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>26.5</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>31.5</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>25.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>21.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>25.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>18.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>21.1</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>29.5</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>22.3</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>17.600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>15.5</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>38.1</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>26.4</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>29.8</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>44.6</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>23.6</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>39.1</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>35.1</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>37.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>34.4</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>29.9</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>33.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -4191,10 +4261,10 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>ScatterPlot!$G$2:$G$96</c:f>
+              <c:f>ScatterPlot!$G$2:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4343,14 +4413,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>3820</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="52">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4400,14 +4470,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>3530</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="71">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4415,14 +4485,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3250</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="76">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4478,6 +4548,12 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -4510,10 +4586,10 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>ScatterPlot!$H$2:$H$96</c:f>
+              <c:f>ScatterPlot!$H$2:$H$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4521,26 +4597,26 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2372</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2228</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4551,17 +4627,17 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1773</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>2278</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4569,17 +4645,17 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2506</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4587,38 +4663,38 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2279</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2807</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1836</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1649</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4626,20 +4702,20 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2171</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>2702</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="42">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4653,20 +4729,20 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>2155</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>2930</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4677,14 +4753,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>2265</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="57">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4701,17 +4777,17 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>2560</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>2515</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="66">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4722,23 +4798,23 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>1968</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>2711</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>2265</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="75">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -4746,57 +4822,63 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>1755</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>2050</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="82">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>2350</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="87">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2245</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="91">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2665</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -4804,10 +4886,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ScatterPlot!$B$2:$B$96</c:f>
+              <c:f>ScatterPlot!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -4815,282 +4897,288 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.335000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>26.5</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>31.5</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>25.5</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>21.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>36.1</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>25.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>18.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>21.1</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>29.5</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>22.3</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>17.600000000000001</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>15.5</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>38.1</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>26.4</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>29.8</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>32.200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>44.6</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>23.6</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>39.1</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>35.1</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>37.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>34.4</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>29.9</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>33.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>32.4</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>25.4</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>20.2</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -5098,10 +5186,10 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>ScatterPlot!$H$2:$H$96</c:f>
+              <c:f>ScatterPlot!$H$2:$H$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5109,26 +5197,26 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2372</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2228</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5139,17 +5227,17 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1773</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>2278</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="16">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5157,17 +5245,17 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2506</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5175,38 +5263,38 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2279</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2807</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1836</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1649</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5214,20 +5302,20 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2171</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>2702</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="42">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5241,20 +5329,20 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>2155</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>2930</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5265,14 +5353,14 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>2265</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="57">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5289,17 +5377,17 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>2560</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>2515</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="66">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5310,23 +5398,23 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>1968</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>2711</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>2265</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="75">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -5334,57 +5422,63 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>1755</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>2050</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="82">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>2350</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="87">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2245</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="91">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2665</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -5449,13 +5543,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>ScatterPlot!$C$2:$C$96</c15:sqref>
+                          <c15:sqref>ScatterPlot!$C$2:$C$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="95"/>
+                      <c:ptCount val="97"/>
                       <c:pt idx="0">
                         <c:v>3449</c:v>
                       </c:pt>
@@ -5463,282 +5557,288 @@
                         <c:v>4341</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>4034</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3353</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>2372</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
                         <c:v>2587</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="6">
                         <c:v>2234</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="7">
                         <c:v>4615</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="8">
                         <c:v>2228</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="9">
                         <c:v>2046</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>3302</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>4154</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>4746</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>3139</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="14">
                         <c:v>1773</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
                         <c:v>2278</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="16">
                         <c:v>2226</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="17">
                         <c:v>4129</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="18">
                         <c:v>4294</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="19">
                         <c:v>2395</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="20">
                         <c:v>2506</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="21">
                         <c:v>2100</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="22">
                         <c:v>4042</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="23">
                         <c:v>4363</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="24">
                         <c:v>3021</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="25">
                         <c:v>4906</c:v>
                       </c:pt>
-                      <c:pt idx="24">
+                      <c:pt idx="26">
                         <c:v>2279</c:v>
                       </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="27">
                         <c:v>2310</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="28">
                         <c:v>2807</c:v>
                       </c:pt>
-                      <c:pt idx="27">
+                      <c:pt idx="29">
                         <c:v>2875</c:v>
                       </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="30">
                         <c:v>2451</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="31">
                         <c:v>1836</c:v>
                       </c:pt>
-                      <c:pt idx="30">
+                      <c:pt idx="32">
                         <c:v>4141</c:v>
                       </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="33">
                         <c:v>4638</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="34">
                         <c:v>1649</c:v>
                       </c:pt>
-                      <c:pt idx="33">
+                      <c:pt idx="35">
                         <c:v>2489</c:v>
                       </c:pt>
-                      <c:pt idx="34">
+                      <c:pt idx="36">
                         <c:v>3158</c:v>
                       </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="37">
                         <c:v>4657</c:v>
                       </c:pt>
-                      <c:pt idx="36">
+                      <c:pt idx="38">
                         <c:v>3169</c:v>
                       </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="39">
                         <c:v>2171</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="40">
                         <c:v>2639</c:v>
                       </c:pt>
-                      <c:pt idx="39">
+                      <c:pt idx="41">
                         <c:v>2702</c:v>
                       </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="42">
                         <c:v>2984</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
                         <c:v>1795</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="44">
                         <c:v>4215</c:v>
                       </c:pt>
-                      <c:pt idx="43">
+                      <c:pt idx="45">
                         <c:v>3012</c:v>
                       </c:pt>
-                      <c:pt idx="44">
+                      <c:pt idx="46">
                         <c:v>1795</c:v>
                       </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="47">
                         <c:v>3574</c:v>
                       </c:pt>
-                      <c:pt idx="46">
+                      <c:pt idx="48">
                         <c:v>2155</c:v>
                       </c:pt>
-                      <c:pt idx="47">
+                      <c:pt idx="49">
                         <c:v>2565</c:v>
                       </c:pt>
-                      <c:pt idx="48">
+                      <c:pt idx="50">
                         <c:v>2930</c:v>
                       </c:pt>
-                      <c:pt idx="49">
+                      <c:pt idx="51">
                         <c:v>3820</c:v>
                       </c:pt>
-                      <c:pt idx="50">
+                      <c:pt idx="52">
                         <c:v>3870</c:v>
                       </c:pt>
-                      <c:pt idx="51">
+                      <c:pt idx="53">
                         <c:v>2045</c:v>
                       </c:pt>
-                      <c:pt idx="52">
+                      <c:pt idx="54">
                         <c:v>3525</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="55">
                         <c:v>4335</c:v>
                       </c:pt>
-                      <c:pt idx="54">
+                      <c:pt idx="56">
                         <c:v>2265</c:v>
                       </c:pt>
-                      <c:pt idx="55">
+                      <c:pt idx="57">
                         <c:v>2755</c:v>
                       </c:pt>
-                      <c:pt idx="56">
+                      <c:pt idx="58">
                         <c:v>2600</c:v>
                       </c:pt>
-                      <c:pt idx="57">
+                      <c:pt idx="59">
                         <c:v>1800</c:v>
                       </c:pt>
-                      <c:pt idx="58">
+                      <c:pt idx="60">
                         <c:v>1800</c:v>
                       </c:pt>
-                      <c:pt idx="59">
+                      <c:pt idx="61">
                         <c:v>2965</c:v>
                       </c:pt>
-                      <c:pt idx="60">
+                      <c:pt idx="62">
                         <c:v>2720</c:v>
                       </c:pt>
-                      <c:pt idx="61">
+                      <c:pt idx="63">
                         <c:v>3205</c:v>
                       </c:pt>
-                      <c:pt idx="62">
+                      <c:pt idx="64">
                         <c:v>2560</c:v>
                       </c:pt>
-                      <c:pt idx="63">
+                      <c:pt idx="65">
                         <c:v>2515</c:v>
                       </c:pt>
-                      <c:pt idx="64">
+                      <c:pt idx="66">
                         <c:v>2135</c:v>
                       </c:pt>
-                      <c:pt idx="65">
+                      <c:pt idx="67">
                         <c:v>2890</c:v>
                       </c:pt>
-                      <c:pt idx="66">
+                      <c:pt idx="68">
                         <c:v>3725</c:v>
                       </c:pt>
-                      <c:pt idx="67">
+                      <c:pt idx="69">
                         <c:v>4054</c:v>
                       </c:pt>
-                      <c:pt idx="68">
+                      <c:pt idx="70">
                         <c:v>3530</c:v>
                       </c:pt>
-                      <c:pt idx="69">
+                      <c:pt idx="71">
                         <c:v>1968</c:v>
                       </c:pt>
-                      <c:pt idx="70">
+                      <c:pt idx="72">
                         <c:v>2870</c:v>
                       </c:pt>
-                      <c:pt idx="71">
+                      <c:pt idx="73">
                         <c:v>2711</c:v>
                       </c:pt>
-                      <c:pt idx="72">
+                      <c:pt idx="74">
                         <c:v>2265</c:v>
                       </c:pt>
-                      <c:pt idx="73">
+                      <c:pt idx="75">
                         <c:v>3250</c:v>
                       </c:pt>
-                      <c:pt idx="74">
+                      <c:pt idx="76">
                         <c:v>1850</c:v>
                       </c:pt>
-                      <c:pt idx="75">
+                      <c:pt idx="77">
                         <c:v>2905</c:v>
                       </c:pt>
-                      <c:pt idx="76">
+                      <c:pt idx="78">
                         <c:v>2290</c:v>
                       </c:pt>
-                      <c:pt idx="77">
+                      <c:pt idx="79">
                         <c:v>1755</c:v>
                       </c:pt>
-                      <c:pt idx="78">
+                      <c:pt idx="80">
                         <c:v>1760</c:v>
                       </c:pt>
-                      <c:pt idx="79">
+                      <c:pt idx="81">
                         <c:v>2050</c:v>
                       </c:pt>
-                      <c:pt idx="80">
+                      <c:pt idx="82">
                         <c:v>2045</c:v>
                       </c:pt>
-                      <c:pt idx="81">
+                      <c:pt idx="83">
                         <c:v>2380</c:v>
                       </c:pt>
-                      <c:pt idx="82">
+                      <c:pt idx="84">
                         <c:v>2210</c:v>
                       </c:pt>
-                      <c:pt idx="83">
+                      <c:pt idx="85">
                         <c:v>2350</c:v>
                       </c:pt>
-                      <c:pt idx="84">
+                      <c:pt idx="86">
                         <c:v>2900</c:v>
                       </c:pt>
-                      <c:pt idx="85">
+                      <c:pt idx="87">
                         <c:v>3060</c:v>
                       </c:pt>
-                      <c:pt idx="86">
+                      <c:pt idx="88">
                         <c:v>2865</c:v>
                       </c:pt>
-                      <c:pt idx="87">
+                      <c:pt idx="89">
                         <c:v>2205</c:v>
                       </c:pt>
-                      <c:pt idx="88">
+                      <c:pt idx="90">
                         <c:v>2245</c:v>
                       </c:pt>
-                      <c:pt idx="89">
+                      <c:pt idx="91">
                         <c:v>1965</c:v>
                       </c:pt>
-                      <c:pt idx="90">
+                      <c:pt idx="92">
                         <c:v>1965</c:v>
                       </c:pt>
-                      <c:pt idx="91">
+                      <c:pt idx="93">
                         <c:v>2835</c:v>
                       </c:pt>
-                      <c:pt idx="92">
+                      <c:pt idx="94">
                         <c:v>2665</c:v>
                       </c:pt>
-                      <c:pt idx="93">
+                      <c:pt idx="95">
                         <c:v>2790</c:v>
                       </c:pt>
-                      <c:pt idx="94">
+                      <c:pt idx="96">
                         <c:v>2625</c:v>
                       </c:pt>
                     </c:numCache>
@@ -5749,13 +5849,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>ScatterPlot!$B$2:$B$96</c15:sqref>
+                          <c15:sqref>ScatterPlot!$B$2:$B$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="95"/>
+                      <c:ptCount val="97"/>
                       <c:pt idx="0">
                         <c:v>17</c:v>
                       </c:pt>
@@ -5763,282 +5863,288 @@
                         <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>14.335000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>14.335000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>24</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
                         <c:v>21</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="6">
                         <c:v>26</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="7">
                         <c:v>10</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="8">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="9">
                         <c:v>25</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>19</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="14">
                         <c:v>31</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
                         <c:v>24</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="16">
                         <c:v>21</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="17">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="18">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="19">
                         <c:v>22</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="20">
                         <c:v>23</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="21">
                         <c:v>27</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="22">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="23">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="24">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="25">
                         <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>19</c:v>
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="27">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
                         <c:v>21</c:v>
                       </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="30">
                         <c:v>26</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="31">
                         <c:v>32</c:v>
                       </c:pt>
-                      <c:pt idx="30">
+                      <c:pt idx="32">
                         <c:v>16</c:v>
                       </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="33">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="34">
                         <c:v>31</c:v>
                       </c:pt>
-                      <c:pt idx="33">
+                      <c:pt idx="35">
                         <c:v>24</c:v>
                       </c:pt>
-                      <c:pt idx="34">
+                      <c:pt idx="36">
                         <c:v>15</c:v>
                       </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="37">
                         <c:v>14</c:v>
                       </c:pt>
-                      <c:pt idx="36">
+                      <c:pt idx="38">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="39">
                         <c:v>29</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="40">
                         <c:v>23</c:v>
                       </c:pt>
-                      <c:pt idx="39">
+                      <c:pt idx="41">
                         <c:v>24</c:v>
                       </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="42">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
                         <c:v>33</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="44">
                         <c:v>14.5</c:v>
                       </c:pt>
-                      <c:pt idx="43">
+                      <c:pt idx="45">
                         <c:v>24</c:v>
                       </c:pt>
-                      <c:pt idx="44">
+                      <c:pt idx="46">
                         <c:v>33</c:v>
                       </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="47">
                         <c:v>18</c:v>
                       </c:pt>
-                      <c:pt idx="46">
+                      <c:pt idx="48">
                         <c:v>28</c:v>
                       </c:pt>
-                      <c:pt idx="47">
+                      <c:pt idx="49">
                         <c:v>26.5</c:v>
                       </c:pt>
-                      <c:pt idx="48">
+                      <c:pt idx="50">
                         <c:v>19</c:v>
                       </c:pt>
-                      <c:pt idx="49">
+                      <c:pt idx="51">
                         <c:v>16.5</c:v>
                       </c:pt>
-                      <c:pt idx="50">
+                      <c:pt idx="52">
                         <c:v>13</c:v>
                       </c:pt>
-                      <c:pt idx="51">
+                      <c:pt idx="53">
                         <c:v>31.5</c:v>
                       </c:pt>
-                      <c:pt idx="52">
+                      <c:pt idx="54">
                         <c:v>18.5</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="55">
                         <c:v>16</c:v>
                       </c:pt>
-                      <c:pt idx="54">
+                      <c:pt idx="56">
                         <c:v>26</c:v>
                       </c:pt>
-                      <c:pt idx="55">
+                      <c:pt idx="57">
                         <c:v>25.5</c:v>
                       </c:pt>
-                      <c:pt idx="56">
+                      <c:pt idx="58">
                         <c:v>21.5</c:v>
                       </c:pt>
-                      <c:pt idx="57">
+                      <c:pt idx="59">
                         <c:v>36.1</c:v>
                       </c:pt>
-                      <c:pt idx="58">
+                      <c:pt idx="60">
                         <c:v>36.1</c:v>
                       </c:pt>
-                      <c:pt idx="59">
+                      <c:pt idx="61">
                         <c:v>20.2</c:v>
                       </c:pt>
-                      <c:pt idx="60">
+                      <c:pt idx="62">
                         <c:v>25.1</c:v>
                       </c:pt>
-                      <c:pt idx="61">
+                      <c:pt idx="63">
                         <c:v>18.100000000000001</c:v>
                       </c:pt>
-                      <c:pt idx="62">
+                      <c:pt idx="64">
                         <c:v>27.5</c:v>
                       </c:pt>
-                      <c:pt idx="63">
+                      <c:pt idx="65">
                         <c:v>21.1</c:v>
                       </c:pt>
-                      <c:pt idx="64">
+                      <c:pt idx="66">
                         <c:v>29.5</c:v>
                       </c:pt>
-                      <c:pt idx="65">
+                      <c:pt idx="67">
                         <c:v>22.3</c:v>
                       </c:pt>
-                      <c:pt idx="66">
+                      <c:pt idx="68">
                         <c:v>17.600000000000001</c:v>
                       </c:pt>
-                      <c:pt idx="67">
+                      <c:pt idx="69">
                         <c:v>15.5</c:v>
                       </c:pt>
-                      <c:pt idx="68">
+                      <c:pt idx="70">
                         <c:v>25.4</c:v>
                       </c:pt>
-                      <c:pt idx="69">
+                      <c:pt idx="71">
                         <c:v>38.1</c:v>
                       </c:pt>
-                      <c:pt idx="70">
+                      <c:pt idx="72">
                         <c:v>26.4</c:v>
                       </c:pt>
-                      <c:pt idx="71">
+                      <c:pt idx="73">
                         <c:v>29.8</c:v>
                       </c:pt>
-                      <c:pt idx="72">
+                      <c:pt idx="74">
                         <c:v>32.200000000000003</c:v>
                       </c:pt>
-                      <c:pt idx="73">
+                      <c:pt idx="75">
                         <c:v>30</c:v>
                       </c:pt>
-                      <c:pt idx="74">
+                      <c:pt idx="76">
                         <c:v>44.6</c:v>
                       </c:pt>
-                      <c:pt idx="75">
+                      <c:pt idx="77">
                         <c:v>23.6</c:v>
                       </c:pt>
-                      <c:pt idx="76">
+                      <c:pt idx="78">
                         <c:v>32.4</c:v>
                       </c:pt>
-                      <c:pt idx="77">
+                      <c:pt idx="79">
                         <c:v>39.1</c:v>
                       </c:pt>
-                      <c:pt idx="78">
+                      <c:pt idx="80">
                         <c:v>35.1</c:v>
                       </c:pt>
-                      <c:pt idx="79">
+                      <c:pt idx="81">
                         <c:v>37.700000000000003</c:v>
                       </c:pt>
-                      <c:pt idx="80">
+                      <c:pt idx="82">
                         <c:v>34.4</c:v>
                       </c:pt>
-                      <c:pt idx="81">
+                      <c:pt idx="83">
                         <c:v>29.9</c:v>
                       </c:pt>
-                      <c:pt idx="82">
+                      <c:pt idx="84">
                         <c:v>33.700000000000003</c:v>
                       </c:pt>
-                      <c:pt idx="83">
+                      <c:pt idx="85">
                         <c:v>32.4</c:v>
                       </c:pt>
-                      <c:pt idx="84">
+                      <c:pt idx="86">
                         <c:v>25.4</c:v>
                       </c:pt>
-                      <c:pt idx="85">
+                      <c:pt idx="87">
                         <c:v>20.2</c:v>
                       </c:pt>
-                      <c:pt idx="86">
+                      <c:pt idx="88">
                         <c:v>24</c:v>
                       </c:pt>
-                      <c:pt idx="87">
+                      <c:pt idx="89">
                         <c:v>36</c:v>
                       </c:pt>
-                      <c:pt idx="88">
+                      <c:pt idx="90">
                         <c:v>34</c:v>
                       </c:pt>
-                      <c:pt idx="89">
+                      <c:pt idx="91">
                         <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>22</c:v>
                       </c:pt>
                       <c:pt idx="92">
                         <c:v>32</c:v>
                       </c:pt>
                       <c:pt idx="93">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
                         <c:v>27</c:v>
                       </c:pt>
-                      <c:pt idx="94">
+                      <c:pt idx="96">
                         <c:v>28</c:v>
                       </c:pt>
                     </c:numCache>
@@ -6049,13 +6155,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>ScatterPlot!$C$2:$C$96</c15:sqref>
+                          <c15:sqref>ScatterPlot!$C$2:$C$98</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="95"/>
+                      <c:ptCount val="97"/>
                       <c:pt idx="0">
                         <c:v>3449</c:v>
                       </c:pt>
@@ -6063,282 +6169,288 @@
                         <c:v>4341</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>4034</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3353</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>2372</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
                         <c:v>2587</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="6">
                         <c:v>2234</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="7">
                         <c:v>4615</c:v>
                       </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="8">
                         <c:v>2228</c:v>
                       </c:pt>
-                      <c:pt idx="7">
+                      <c:pt idx="9">
                         <c:v>2046</c:v>
                       </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="10">
                         <c:v>3302</c:v>
                       </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="11">
                         <c:v>4154</c:v>
                       </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="12">
                         <c:v>4746</c:v>
                       </c:pt>
-                      <c:pt idx="11">
+                      <c:pt idx="13">
                         <c:v>3139</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="14">
                         <c:v>1773</c:v>
                       </c:pt>
-                      <c:pt idx="13">
+                      <c:pt idx="15">
                         <c:v>2278</c:v>
                       </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="16">
                         <c:v>2226</c:v>
                       </c:pt>
-                      <c:pt idx="15">
+                      <c:pt idx="17">
                         <c:v>4129</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="18">
                         <c:v>4294</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="19">
                         <c:v>2395</c:v>
                       </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="20">
                         <c:v>2506</c:v>
                       </c:pt>
-                      <c:pt idx="19">
+                      <c:pt idx="21">
                         <c:v>2100</c:v>
                       </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="22">
                         <c:v>4042</c:v>
                       </c:pt>
-                      <c:pt idx="21">
+                      <c:pt idx="23">
                         <c:v>4363</c:v>
                       </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="24">
                         <c:v>3021</c:v>
                       </c:pt>
-                      <c:pt idx="23">
+                      <c:pt idx="25">
                         <c:v>4906</c:v>
                       </c:pt>
-                      <c:pt idx="24">
+                      <c:pt idx="26">
                         <c:v>2279</c:v>
                       </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="27">
                         <c:v>2310</c:v>
                       </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="28">
                         <c:v>2807</c:v>
                       </c:pt>
-                      <c:pt idx="27">
+                      <c:pt idx="29">
                         <c:v>2875</c:v>
                       </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="30">
                         <c:v>2451</c:v>
                       </c:pt>
-                      <c:pt idx="29">
+                      <c:pt idx="31">
                         <c:v>1836</c:v>
                       </c:pt>
-                      <c:pt idx="30">
+                      <c:pt idx="32">
                         <c:v>4141</c:v>
                       </c:pt>
-                      <c:pt idx="31">
+                      <c:pt idx="33">
                         <c:v>4638</c:v>
                       </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="34">
                         <c:v>1649</c:v>
                       </c:pt>
-                      <c:pt idx="33">
+                      <c:pt idx="35">
                         <c:v>2489</c:v>
                       </c:pt>
-                      <c:pt idx="34">
+                      <c:pt idx="36">
                         <c:v>3158</c:v>
                       </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="37">
                         <c:v>4657</c:v>
                       </c:pt>
-                      <c:pt idx="36">
+                      <c:pt idx="38">
                         <c:v>3169</c:v>
                       </c:pt>
-                      <c:pt idx="37">
+                      <c:pt idx="39">
                         <c:v>2171</c:v>
                       </c:pt>
-                      <c:pt idx="38">
+                      <c:pt idx="40">
                         <c:v>2639</c:v>
                       </c:pt>
-                      <c:pt idx="39">
+                      <c:pt idx="41">
                         <c:v>2702</c:v>
                       </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="42">
                         <c:v>2984</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
                         <c:v>1795</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="44">
                         <c:v>4215</c:v>
                       </c:pt>
-                      <c:pt idx="43">
+                      <c:pt idx="45">
                         <c:v>3012</c:v>
                       </c:pt>
-                      <c:pt idx="44">
+                      <c:pt idx="46">
                         <c:v>1795</c:v>
                       </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="47">
                         <c:v>3574</c:v>
                       </c:pt>
-                      <c:pt idx="46">
+                      <c:pt idx="48">
                         <c:v>2155</c:v>
                       </c:pt>
-                      <c:pt idx="47">
+                      <c:pt idx="49">
                         <c:v>2565</c:v>
                       </c:pt>
-                      <c:pt idx="48">
+                      <c:pt idx="50">
                         <c:v>2930</c:v>
                       </c:pt>
-                      <c:pt idx="49">
+                      <c:pt idx="51">
                         <c:v>3820</c:v>
                       </c:pt>
-                      <c:pt idx="50">
+                      <c:pt idx="52">
                         <c:v>3870</c:v>
                       </c:pt>
-                      <c:pt idx="51">
+                      <c:pt idx="53">
                         <c:v>2045</c:v>
                       </c:pt>
-                      <c:pt idx="52">
+                      <c:pt idx="54">
                         <c:v>3525</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="55">
                         <c:v>4335</c:v>
                       </c:pt>
-                      <c:pt idx="54">
+                      <c:pt idx="56">
                         <c:v>2265</c:v>
                       </c:pt>
-                      <c:pt idx="55">
+                      <c:pt idx="57">
                         <c:v>2755</c:v>
                       </c:pt>
-                      <c:pt idx="56">
+                      <c:pt idx="58">
                         <c:v>2600</c:v>
                       </c:pt>
-                      <c:pt idx="57">
+                      <c:pt idx="59">
                         <c:v>1800</c:v>
                       </c:pt>
-                      <c:pt idx="58">
+                      <c:pt idx="60">
                         <c:v>1800</c:v>
                       </c:pt>
-                      <c:pt idx="59">
+                      <c:pt idx="61">
                         <c:v>2965</c:v>
                       </c:pt>
-                      <c:pt idx="60">
+                      <c:pt idx="62">
                         <c:v>2720</c:v>
                       </c:pt>
-                      <c:pt idx="61">
+                      <c:pt idx="63">
                         <c:v>3205</c:v>
                       </c:pt>
-                      <c:pt idx="62">
+                      <c:pt idx="64">
                         <c:v>2560</c:v>
                       </c:pt>
-                      <c:pt idx="63">
+                      <c:pt idx="65">
                         <c:v>2515</c:v>
                       </c:pt>
-                      <c:pt idx="64">
+                      <c:pt idx="66">
                         <c:v>2135</c:v>
                       </c:pt>
-                      <c:pt idx="65">
+                      <c:pt idx="67">
                         <c:v>2890</c:v>
                       </c:pt>
-                      <c:pt idx="66">
+                      <c:pt idx="68">
                         <c:v>3725</c:v>
                       </c:pt>
-                      <c:pt idx="67">
+                      <c:pt idx="69">
                         <c:v>4054</c:v>
                       </c:pt>
-                      <c:pt idx="68">
+                      <c:pt idx="70">
                         <c:v>3530</c:v>
                       </c:pt>
-                      <c:pt idx="69">
+                      <c:pt idx="71">
                         <c:v>1968</c:v>
                       </c:pt>
-                      <c:pt idx="70">
+                      <c:pt idx="72">
                         <c:v>2870</c:v>
                       </c:pt>
-                      <c:pt idx="71">
+                      <c:pt idx="73">
                         <c:v>2711</c:v>
                       </c:pt>
-                      <c:pt idx="72">
+                      <c:pt idx="74">
                         <c:v>2265</c:v>
                       </c:pt>
-                      <c:pt idx="73">
+                      <c:pt idx="75">
                         <c:v>3250</c:v>
                       </c:pt>
-                      <c:pt idx="74">
+                      <c:pt idx="76">
                         <c:v>1850</c:v>
                       </c:pt>
-                      <c:pt idx="75">
+                      <c:pt idx="77">
                         <c:v>2905</c:v>
                       </c:pt>
-                      <c:pt idx="76">
+                      <c:pt idx="78">
                         <c:v>2290</c:v>
                       </c:pt>
-                      <c:pt idx="77">
+                      <c:pt idx="79">
                         <c:v>1755</c:v>
                       </c:pt>
-                      <c:pt idx="78">
+                      <c:pt idx="80">
                         <c:v>1760</c:v>
                       </c:pt>
-                      <c:pt idx="79">
+                      <c:pt idx="81">
                         <c:v>2050</c:v>
                       </c:pt>
-                      <c:pt idx="80">
+                      <c:pt idx="82">
                         <c:v>2045</c:v>
                       </c:pt>
-                      <c:pt idx="81">
+                      <c:pt idx="83">
                         <c:v>2380</c:v>
                       </c:pt>
-                      <c:pt idx="82">
+                      <c:pt idx="84">
                         <c:v>2210</c:v>
                       </c:pt>
-                      <c:pt idx="83">
+                      <c:pt idx="85">
                         <c:v>2350</c:v>
                       </c:pt>
-                      <c:pt idx="84">
+                      <c:pt idx="86">
                         <c:v>2900</c:v>
                       </c:pt>
-                      <c:pt idx="85">
+                      <c:pt idx="87">
                         <c:v>3060</c:v>
                       </c:pt>
-                      <c:pt idx="86">
+                      <c:pt idx="88">
                         <c:v>2865</c:v>
                       </c:pt>
-                      <c:pt idx="87">
+                      <c:pt idx="89">
                         <c:v>2205</c:v>
                       </c:pt>
-                      <c:pt idx="88">
+                      <c:pt idx="90">
                         <c:v>2245</c:v>
                       </c:pt>
-                      <c:pt idx="89">
+                      <c:pt idx="91">
                         <c:v>1965</c:v>
                       </c:pt>
-                      <c:pt idx="90">
+                      <c:pt idx="92">
                         <c:v>1965</c:v>
                       </c:pt>
-                      <c:pt idx="91">
+                      <c:pt idx="93">
                         <c:v>2835</c:v>
                       </c:pt>
-                      <c:pt idx="92">
+                      <c:pt idx="94">
                         <c:v>2665</c:v>
                       </c:pt>
-                      <c:pt idx="93">
+                      <c:pt idx="95">
                         <c:v>2790</c:v>
                       </c:pt>
-                      <c:pt idx="94">
+                      <c:pt idx="96">
                         <c:v>2625</c:v>
                       </c:pt>
                     </c:numCache>
@@ -7283,15 +7395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>575309</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>601979</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>226694</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7555,12 +7667,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.9018</cdr:x>
-      <cdr:y>0.66605</cdr:y>
+      <cdr:x>0.90388</cdr:x>
+      <cdr:y>0.66746</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.93161</cdr:x>
-      <cdr:y>0.70393</cdr:y>
+      <cdr:x>0.92832</cdr:x>
+      <cdr:y>0.69992</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7575,8 +7687,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8213594" y="4673017"/>
-          <a:ext cx="271589" cy="265731"/>
+          <a:off x="8287442" y="4512587"/>
+          <a:ext cx="224099" cy="219434"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
           <a:avLst/>
@@ -8001,15 +8113,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8035,7 +8147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8066,7 +8178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8077,458 +8189,454 @@
         <v>4341</v>
       </c>
       <c r="D3" t="e">
-        <f t="shared" ref="D3:D66" si="0">IF(A3=$D$1,C3,#N/A)</f>
+        <f t="shared" ref="D3:D68" si="0">IF(A3=$D$1,C3,#N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">IF(A3=$E$1,C3,#N/A)</f>
+        <f t="shared" ref="E3:E68" si="1">IF(A3=$E$1,C3,#N/A)</f>
         <v>4341</v>
       </c>
       <c r="F3" t="e">
-        <f t="shared" ref="F3:F66" si="2">IF(A3=$F$1,C3,#N/A)</f>
+        <f t="shared" ref="F3:F68" si="2">IF(A3=$F$1,C3,#N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="G3" t="e">
-        <f t="shared" ref="G3:G66" si="3">IF(A3=$G$1,C3,#N/A)</f>
+        <f t="shared" ref="G3:G68" si="3">IF(A3=$G$1,C3,#N/A)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" t="e">
-        <f t="shared" ref="H3:H66" si="4">IF(A3=$H$1,C3,#N/A)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H3:H68" si="4">IF(A3=$H$1,C3,#N/A)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>14.335000000000001</v>
+      </c>
+      <c r="C4">
+        <v>4034</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4034</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14.335000000000001</v>
+      </c>
+      <c r="C5">
+        <v>3353</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3353</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>24</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>2372</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D6" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E4" t="e">
+      <c r="E6" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F4" t="e">
+      <c r="F6" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G4" t="e">
+      <c r="G6" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <f t="shared" si="4"/>
         <v>2372</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>21</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>2587</v>
       </c>
-      <c r="D5" t="e">
+      <c r="D7" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>2587</v>
       </c>
-      <c r="F5" t="e">
+      <c r="F7" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G7" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H5" t="e">
+      <c r="H7" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>26</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>2234</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>2234</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E8" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F8" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G8" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H6" t="e">
+      <c r="H8" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>4615</v>
       </c>
-      <c r="D7" t="e">
+      <c r="D9" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>4615</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F9" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G7" t="e">
+      <c r="G9" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H7" t="e">
+      <c r="H9" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>2228</v>
       </c>
-      <c r="D8" t="e">
+      <c r="D10" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E8" t="e">
+      <c r="E10" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F8" t="e">
+      <c r="F10" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G8" t="e">
+      <c r="G10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <f t="shared" si="4"/>
         <v>2228</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>2046</v>
       </c>
-      <c r="D9" t="e">
+      <c r="D11" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>2046</v>
       </c>
-      <c r="F9" t="e">
+      <c r="F11" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G9" t="e">
+      <c r="G11" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H9" t="e">
+      <c r="H11" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>3302</v>
       </c>
-      <c r="D10" t="e">
+      <c r="D12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>3302</v>
       </c>
-      <c r="F10" t="e">
+      <c r="F12" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G10" t="e">
+      <c r="G12" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H10" t="e">
+      <c r="H12" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>4154</v>
       </c>
-      <c r="D11" t="e">
+      <c r="D13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>4154</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F13" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G13" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H11" t="e">
+      <c r="H13" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>4746</v>
       </c>
-      <c r="D12" t="e">
+      <c r="D14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>4746</v>
       </c>
-      <c r="F12" t="e">
+      <c r="F14" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G12" t="e">
+      <c r="G14" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H12" t="e">
+      <c r="H14" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>3139</v>
       </c>
-      <c r="D13" t="e">
+      <c r="D15" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>3139</v>
       </c>
-      <c r="F13" t="e">
+      <c r="F15" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G13" t="e">
+      <c r="G15" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H13" t="e">
+      <c r="H15" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>31</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>1773</v>
       </c>
-      <c r="D14" t="e">
+      <c r="D16" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E14" t="e">
+      <c r="E16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F14" t="e">
+      <c r="F16" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G14" t="e">
+      <c r="G16" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <f t="shared" si="4"/>
         <v>1773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>24</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>2278</v>
       </c>
-      <c r="D15" t="e">
+      <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E15" t="e">
+      <c r="E17" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F15" t="e">
+      <c r="F17" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G15" t="e">
+      <c r="G17" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <f t="shared" si="4"/>
         <v>2278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>2226</v>
-      </c>
-      <c r="D16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>2226</v>
-      </c>
-      <c r="F16" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>4129</v>
-      </c>
-      <c r="D17" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>4129</v>
-      </c>
-      <c r="F17" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -8536,10 +8644,10 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>4294</v>
+        <v>2226</v>
       </c>
       <c r="D18" t="e">
         <f t="shared" si="0"/>
@@ -8547,7 +8655,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>4294</v>
+        <v>2226</v>
       </c>
       <c r="F18" t="e">
         <f t="shared" si="2"/>
@@ -8567,10 +8675,10 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>2395</v>
+        <v>4129</v>
       </c>
       <c r="D19" t="e">
         <f t="shared" si="0"/>
@@ -8578,7 +8686,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>2395</v>
+        <v>4129</v>
       </c>
       <c r="F19" t="e">
         <f t="shared" si="2"/>
@@ -8595,21 +8703,21 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>2506</v>
+        <v>4294</v>
       </c>
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E20" t="e">
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>4294</v>
       </c>
       <c r="F20" t="e">
         <f t="shared" si="2"/>
@@ -8619,102 +8727,102 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>2395</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2395</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2506</v>
+      </c>
+      <c r="D22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="4"/>
         <v>2506</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>2100</v>
       </c>
-      <c r="D21" t="e">
+      <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E21" t="e">
+      <c r="E23" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F21" t="e">
+      <c r="F23" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G21" t="e">
+      <c r="G23" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <f t="shared" si="4"/>
         <v>2100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>4042</v>
-      </c>
-      <c r="D22" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>4042</v>
-      </c>
-      <c r="F22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>4363</v>
-      </c>
-      <c r="D23" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>4363</v>
-      </c>
-      <c r="F23" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -8722,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>3021</v>
+        <v>4042</v>
       </c>
       <c r="D24" t="e">
         <f t="shared" si="0"/>
@@ -8733,7 +8841,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>3021</v>
+        <v>4042</v>
       </c>
       <c r="F24" t="e">
         <f t="shared" si="2"/>
@@ -8753,10 +8861,10 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>4906</v>
+        <v>4363</v>
       </c>
       <c r="D25" t="e">
         <f t="shared" si="0"/>
@@ -8764,7 +8872,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>4906</v>
+        <v>4363</v>
       </c>
       <c r="F25" t="e">
         <f t="shared" si="2"/>
@@ -8781,21 +8889,21 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>2279</v>
+        <v>3021</v>
       </c>
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E26" t="e">
+      <c r="E26">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>3021</v>
       </c>
       <c r="F26" t="e">
         <f t="shared" si="2"/>
@@ -8805,9 +8913,9 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="e">
         <f t="shared" si="4"/>
-        <v>2279</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -8815,10 +8923,10 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>2310</v>
+        <v>4906</v>
       </c>
       <c r="D27" t="e">
         <f t="shared" si="0"/>
@@ -8826,7 +8934,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>2310</v>
+        <v>4906</v>
       </c>
       <c r="F27" t="e">
         <f t="shared" si="2"/>
@@ -8849,7 +8957,7 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>2807</v>
+        <v>2279</v>
       </c>
       <c r="D28" t="e">
         <f t="shared" si="0"/>
@@ -8869,7 +8977,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>2807</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -8877,10 +8985,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>2875</v>
+        <v>2310</v>
       </c>
       <c r="D29" t="e">
         <f t="shared" si="0"/>
@@ -8888,7 +8996,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>2875</v>
+        <v>2310</v>
       </c>
       <c r="F29" t="e">
         <f t="shared" si="2"/>
@@ -8905,21 +9013,21 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>2451</v>
+        <v>2807</v>
       </c>
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="e">
         <f t="shared" si="1"/>
-        <v>2451</v>
+        <v>#N/A</v>
       </c>
       <c r="F30" t="e">
         <f t="shared" si="2"/>
@@ -8929,28 +9037,28 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H30" t="e">
+      <c r="H30">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>1836</v>
+        <v>2875</v>
       </c>
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E31" t="e">
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>2875</v>
       </c>
       <c r="F31" t="e">
         <f t="shared" si="2"/>
@@ -8960,9 +9068,9 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="e">
         <f t="shared" si="4"/>
-        <v>1836</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -8970,10 +9078,10 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>4141</v>
+        <v>2451</v>
       </c>
       <c r="D32" t="e">
         <f t="shared" si="0"/>
@@ -8981,7 +9089,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>4141</v>
+        <v>2451</v>
       </c>
       <c r="F32" t="e">
         <f t="shared" si="2"/>
@@ -8998,149 +9106,149 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>4638</v>
+        <v>1836</v>
       </c>
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>4141</v>
+      </c>
+      <c r="D34" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>4141</v>
+      </c>
+      <c r="F34" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>4638</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>4638</v>
       </c>
-      <c r="F33" t="e">
+      <c r="F35" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G33" t="e">
+      <c r="G35" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H33" t="e">
+      <c r="H35" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>31</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>1649</v>
       </c>
-      <c r="D34" t="e">
+      <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E34" t="e">
+      <c r="E36" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F34" t="e">
+      <c r="F36" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G34" t="e">
+      <c r="G36" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H34">
+      <c r="H36">
         <f t="shared" si="4"/>
         <v>1649</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>24</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>2489</v>
       </c>
-      <c r="D35" t="e">
+      <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E35" t="e">
+      <c r="E37" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <f t="shared" si="2"/>
         <v>2489</v>
-      </c>
-      <c r="G35" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H35" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>3158</v>
-      </c>
-      <c r="D36" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>3158</v>
-      </c>
-      <c r="F36" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H36" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>4657</v>
-      </c>
-      <c r="D37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>4657</v>
-      </c>
-      <c r="F37" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
       </c>
       <c r="G37" t="e">
         <f t="shared" si="3"/>
@@ -9156,10 +9264,10 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>3169</v>
+        <v>3158</v>
       </c>
       <c r="D38" t="e">
         <f t="shared" si="0"/>
@@ -9167,7 +9275,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>3169</v>
+        <v>3158</v>
       </c>
       <c r="F38" t="e">
         <f t="shared" si="2"/>
@@ -9184,21 +9292,21 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>2171</v>
+        <v>4657</v>
       </c>
       <c r="D39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E39" t="e">
+      <c r="E39">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>4657</v>
       </c>
       <c r="F39" t="e">
         <f t="shared" si="2"/>
@@ -9208,9 +9316,9 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="e">
         <f t="shared" si="4"/>
-        <v>2171</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -9218,10 +9326,10 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>2639</v>
+        <v>3169</v>
       </c>
       <c r="D40" t="e">
         <f t="shared" si="0"/>
@@ -9229,7 +9337,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>2639</v>
+        <v>3169</v>
       </c>
       <c r="F40" t="e">
         <f t="shared" si="2"/>
@@ -9249,10 +9357,10 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>2702</v>
+        <v>2171</v>
       </c>
       <c r="D41" t="e">
         <f t="shared" si="0"/>
@@ -9272,7 +9380,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="4"/>
-        <v>2702</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -9280,10 +9388,10 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>2984</v>
+        <v>2639</v>
       </c>
       <c r="D42" t="e">
         <f t="shared" si="0"/>
@@ -9291,7 +9399,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>2984</v>
+        <v>2639</v>
       </c>
       <c r="F42" t="e">
         <f t="shared" si="2"/>
@@ -9308,13 +9416,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C43">
-        <v>1795</v>
+        <v>2702</v>
       </c>
       <c r="D43" t="e">
         <f t="shared" si="0"/>
@@ -9324,17 +9432,17 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="e">
         <f t="shared" si="2"/>
-        <v>1795</v>
+        <v>#N/A</v>
       </c>
       <c r="G43" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H43" t="e">
+      <c r="H43">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -9342,10 +9450,10 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>4215</v>
+        <v>2984</v>
       </c>
       <c r="D44" t="e">
         <f t="shared" si="0"/>
@@ -9353,7 +9461,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>4215</v>
+        <v>2984</v>
       </c>
       <c r="F44" t="e">
         <f t="shared" si="2"/>
@@ -9370,25 +9478,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>3012</v>
+        <v>1795</v>
       </c>
       <c r="D45" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="e">
         <f t="shared" si="1"/>
-        <v>3012</v>
-      </c>
-      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1795</v>
       </c>
       <c r="G45" t="e">
         <f t="shared" si="3"/>
@@ -9401,25 +9509,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>14.5</v>
       </c>
       <c r="C46">
-        <v>1795</v>
+        <v>4215</v>
       </c>
       <c r="D46" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E46" t="e">
+      <c r="E46">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F46">
+        <v>4215</v>
+      </c>
+      <c r="F46" t="e">
         <f t="shared" si="2"/>
-        <v>1795</v>
+        <v>#N/A</v>
       </c>
       <c r="G46" t="e">
         <f t="shared" si="3"/>
@@ -9435,10 +9543,10 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>3574</v>
+        <v>3012</v>
       </c>
       <c r="D47" t="e">
         <f t="shared" si="0"/>
@@ -9446,7 +9554,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>3574</v>
+        <v>3012</v>
       </c>
       <c r="F47" t="e">
         <f t="shared" si="2"/>
@@ -9463,13 +9571,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>2155</v>
+        <v>1795</v>
       </c>
       <c r="D48" t="e">
         <f t="shared" si="0"/>
@@ -9479,17 +9587,17 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F48" t="e">
+      <c r="F48">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1795</v>
       </c>
       <c r="G48" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="e">
         <f t="shared" si="4"/>
-        <v>2155</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -9497,10 +9605,10 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>26.5</v>
+        <v>18</v>
       </c>
       <c r="C49">
-        <v>2565</v>
+        <v>3574</v>
       </c>
       <c r="D49" t="e">
         <f t="shared" si="0"/>
@@ -9508,7 +9616,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>2565</v>
+        <v>3574</v>
       </c>
       <c r="F49" t="e">
         <f t="shared" si="2"/>
@@ -9528,10 +9636,10 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C50">
-        <v>2930</v>
+        <v>2155</v>
       </c>
       <c r="D50" t="e">
         <f t="shared" si="0"/>
@@ -9551,96 +9659,96 @@
       </c>
       <c r="H50">
         <f t="shared" si="4"/>
-        <v>2930</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>16.5</v>
+        <v>26.5</v>
       </c>
       <c r="C51">
-        <v>3820</v>
+        <v>2565</v>
       </c>
       <c r="D51" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E51" t="e">
+      <c r="E51">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>2565</v>
       </c>
       <c r="F51" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H51" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>2930</v>
+      </c>
+      <c r="D52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>16.5</v>
+      </c>
+      <c r="C53">
+        <v>3820</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="3"/>
         <v>3820</v>
-      </c>
-      <c r="H51" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52">
-        <v>13</v>
-      </c>
-      <c r="C52">
-        <v>3870</v>
-      </c>
-      <c r="D52" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>3870</v>
-      </c>
-      <c r="F52" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H52" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <v>31.5</v>
-      </c>
-      <c r="C53">
-        <v>2045</v>
-      </c>
-      <c r="D53" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="2"/>
-        <v>2045</v>
-      </c>
-      <c r="G53" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
       </c>
       <c r="H53" t="e">
         <f t="shared" si="4"/>
@@ -9652,10 +9760,10 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>3525</v>
+        <v>3870</v>
       </c>
       <c r="D54" t="e">
         <f t="shared" si="0"/>
@@ -9663,7 +9771,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>3525</v>
+        <v>3870</v>
       </c>
       <c r="F54" t="e">
         <f t="shared" si="2"/>
@@ -9680,25 +9788,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>31.5</v>
       </c>
       <c r="C55">
-        <v>4335</v>
+        <v>2045</v>
       </c>
       <c r="D55" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="e">
         <f t="shared" si="1"/>
-        <v>4335</v>
-      </c>
-      <c r="F55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>2045</v>
       </c>
       <c r="G55" t="e">
         <f t="shared" si="3"/>
@@ -9711,21 +9819,21 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="C56">
-        <v>2265</v>
+        <v>3525</v>
       </c>
       <c r="D56" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E56" t="e">
+      <c r="E56">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>3525</v>
       </c>
       <c r="F56" t="e">
         <f t="shared" si="2"/>
@@ -9735,9 +9843,9 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="e">
         <f t="shared" si="4"/>
-        <v>2265</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -9745,10 +9853,10 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>25.5</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>2755</v>
+        <v>4335</v>
       </c>
       <c r="D57" t="e">
         <f t="shared" si="0"/>
@@ -9756,7 +9864,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
-        <v>2755</v>
+        <v>4335</v>
       </c>
       <c r="F57" t="e">
         <f t="shared" si="2"/>
@@ -9773,17 +9881,17 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>21.5</v>
+        <v>26</v>
       </c>
       <c r="C58">
-        <v>2600</v>
-      </c>
-      <c r="D58">
+        <v>2265</v>
+      </c>
+      <c r="D58" t="e">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>#N/A</v>
       </c>
       <c r="E58" t="e">
         <f t="shared" si="1"/>
@@ -9797,9 +9905,9 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H58" t="e">
+      <c r="H58">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -9807,10 +9915,10 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>36.1</v>
+        <v>25.5</v>
       </c>
       <c r="C59">
-        <v>1800</v>
+        <v>2755</v>
       </c>
       <c r="D59" t="e">
         <f t="shared" si="0"/>
@@ -9818,7 +9926,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>2755</v>
       </c>
       <c r="F59" t="e">
         <f t="shared" si="2"/>
@@ -9835,25 +9943,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>36.1</v>
+        <v>21.5</v>
       </c>
       <c r="C60">
-        <v>1800</v>
-      </c>
-      <c r="D60" t="e">
+        <v>2600</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>2600</v>
       </c>
       <c r="E60" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="e">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>#N/A</v>
       </c>
       <c r="G60" t="e">
         <f t="shared" si="3"/>
@@ -9869,10 +9977,10 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>20.2</v>
+        <v>36.1</v>
       </c>
       <c r="C61">
-        <v>2965</v>
+        <v>1800</v>
       </c>
       <c r="D61" t="e">
         <f t="shared" si="0"/>
@@ -9880,7 +9988,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
-        <v>2965</v>
+        <v>1800</v>
       </c>
       <c r="F61" t="e">
         <f t="shared" si="2"/>
@@ -9897,25 +10005,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>25.1</v>
+        <v>36.1</v>
       </c>
       <c r="C62">
-        <v>2720</v>
+        <v>1800</v>
       </c>
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="e">
         <f t="shared" si="1"/>
-        <v>2720</v>
-      </c>
-      <c r="F62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1800</v>
       </c>
       <c r="G62" t="e">
         <f t="shared" si="3"/>
@@ -9931,10 +10039,10 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>18.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="C63">
-        <v>3205</v>
+        <v>2965</v>
       </c>
       <c r="D63" t="e">
         <f t="shared" si="0"/>
@@ -9942,7 +10050,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
-        <v>3205</v>
+        <v>2965</v>
       </c>
       <c r="F63" t="e">
         <f t="shared" si="2"/>
@@ -9959,21 +10067,21 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>27.5</v>
+        <v>25.1</v>
       </c>
       <c r="C64">
-        <v>2560</v>
+        <v>2720</v>
       </c>
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E64" t="e">
+      <c r="E64">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>2720</v>
       </c>
       <c r="F64" t="e">
         <f t="shared" si="2"/>
@@ -9983,132 +10091,132 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C65">
+        <v>3205</v>
+      </c>
+      <c r="D65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>3205</v>
+      </c>
+      <c r="F65" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H65" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>27.5</v>
+      </c>
+      <c r="C66">
+        <v>2560</v>
+      </c>
+      <c r="D66" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F66" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G66" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="4"/>
         <v>2560</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>4</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>21.1</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>2515</v>
       </c>
-      <c r="D65" t="e">
+      <c r="D67" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E65" t="e">
+      <c r="E67" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F65" t="e">
+      <c r="F67" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G65" t="e">
+      <c r="G67" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H65">
+      <c r="H67">
         <f t="shared" si="4"/>
         <v>2515</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B66">
+      <c r="B68">
         <v>29.5</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>2135</v>
       </c>
-      <c r="D66" t="e">
+      <c r="D68" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="E66" t="e">
+      <c r="E68" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F66">
+      <c r="F68">
         <f t="shared" si="2"/>
         <v>2135</v>
       </c>
-      <c r="G66" t="e">
+      <c r="G68" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="H66" t="e">
+      <c r="H68" t="e">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67">
-        <v>22.3</v>
-      </c>
-      <c r="C67">
-        <v>2890</v>
-      </c>
-      <c r="D67" t="e">
-        <f t="shared" ref="D67:D96" si="5">IF(A67=$D$1,C67,#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E96" si="6">IF(A67=$E$1,C67,#N/A)</f>
-        <v>2890</v>
-      </c>
-      <c r="F67" t="e">
-        <f t="shared" ref="F67:F96" si="7">IF(A67=$F$1,C67,#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G67" t="e">
-        <f t="shared" ref="G67:G96" si="8">IF(A67=$G$1,C67,#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H67" t="e">
-        <f t="shared" ref="H67:H96" si="9">IF(A67=$H$1,C67,#N/A)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C68">
-        <v>3725</v>
-      </c>
-      <c r="D68" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="6"/>
-        <v>3725</v>
-      </c>
-      <c r="F68" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H68" t="e">
-        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -10117,119 +10225,119 @@
         <v>3</v>
       </c>
       <c r="B69">
+        <v>22.3</v>
+      </c>
+      <c r="C69">
+        <v>2890</v>
+      </c>
+      <c r="D69" t="e">
+        <f t="shared" ref="D69:D98" si="5">IF(A69=$D$1,C69,#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:E98" si="6">IF(A69=$E$1,C69,#N/A)</f>
+        <v>2890</v>
+      </c>
+      <c r="F69" t="e">
+        <f t="shared" ref="F69:F98" si="7">IF(A69=$F$1,C69,#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" t="e">
+        <f t="shared" ref="G69:G98" si="8">IF(A69=$G$1,C69,#N/A)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H69" t="e">
+        <f t="shared" ref="H69:H98" si="9">IF(A69=$H$1,C69,#N/A)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C70">
+        <v>3725</v>
+      </c>
+      <c r="D70" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>3725</v>
+      </c>
+      <c r="F70" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G70" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H70" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
         <v>15.5</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>4054</v>
       </c>
-      <c r="D69" t="e">
+      <c r="D71" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E69">
+      <c r="E71">
         <f t="shared" si="6"/>
         <v>4054</v>
       </c>
-      <c r="F69" t="e">
+      <c r="F71" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G69" t="e">
+      <c r="G71" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H69" t="e">
+      <c r="H71" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>7</v>
       </c>
-      <c r="B70">
+      <c r="B72">
         <v>25.4</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>3530</v>
       </c>
-      <c r="D70" t="e">
+      <c r="D72" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E70" t="e">
+      <c r="E72" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F70" t="e">
+      <c r="F72" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G70">
+      <c r="G72">
         <f t="shared" si="8"/>
         <v>3530</v>
-      </c>
-      <c r="H70" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71">
-        <v>38.1</v>
-      </c>
-      <c r="C71">
-        <v>1968</v>
-      </c>
-      <c r="D71" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E71" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F71" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="9"/>
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72">
-        <v>26.4</v>
-      </c>
-      <c r="C72">
-        <v>2870</v>
-      </c>
-      <c r="D72" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="6"/>
-        <v>2870</v>
-      </c>
-      <c r="F72" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G72" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="H72" t="e">
         <f t="shared" si="9"/>
@@ -10241,10 +10349,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>29.8</v>
+        <v>38.1</v>
       </c>
       <c r="C73">
-        <v>2711</v>
+        <v>1968</v>
       </c>
       <c r="D73" t="e">
         <f t="shared" si="5"/>
@@ -10264,26 +10372,26 @@
       </c>
       <c r="H73">
         <f t="shared" si="9"/>
-        <v>2711</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>32.200000000000003</v>
+        <v>26.4</v>
       </c>
       <c r="C74">
-        <v>2265</v>
+        <v>2870</v>
       </c>
       <c r="D74" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E74" t="e">
+      <c r="E74">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>2870</v>
       </c>
       <c r="F74" t="e">
         <f t="shared" si="7"/>
@@ -10293,98 +10401,98 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>29.8</v>
+      </c>
+      <c r="C75">
+        <v>2711</v>
+      </c>
+      <c r="D75" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E75" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F75" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G75" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C76">
+        <v>2265</v>
+      </c>
+      <c r="D76" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E76" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F76" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G76" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="9"/>
         <v>2265</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>7</v>
       </c>
-      <c r="B75">
+      <c r="B77">
         <v>30</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>3250</v>
       </c>
-      <c r="D75" t="e">
+      <c r="D77" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E75" t="e">
+      <c r="E77" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F75" t="e">
+      <c r="F77" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G75">
+      <c r="G77">
         <f t="shared" si="8"/>
         <v>3250</v>
-      </c>
-      <c r="H75" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76">
-        <v>44.6</v>
-      </c>
-      <c r="C76">
-        <v>1850</v>
-      </c>
-      <c r="D76" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E76" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="7"/>
-        <v>1850</v>
-      </c>
-      <c r="G76" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H76" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77">
-        <v>23.6</v>
-      </c>
-      <c r="C77">
-        <v>2905</v>
-      </c>
-      <c r="D77" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="6"/>
-        <v>2905</v>
-      </c>
-      <c r="F77" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
       </c>
       <c r="H77" t="e">
         <f t="shared" si="9"/>
@@ -10396,10 +10504,10 @@
         <v>6</v>
       </c>
       <c r="B78">
-        <v>32.4</v>
+        <v>44.6</v>
       </c>
       <c r="C78">
-        <v>2290</v>
+        <v>1850</v>
       </c>
       <c r="D78" t="e">
         <f t="shared" si="5"/>
@@ -10411,7 +10519,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="7"/>
-        <v>2290</v>
+        <v>1850</v>
       </c>
       <c r="G78" t="e">
         <f t="shared" si="8"/>
@@ -10424,21 +10532,21 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79">
-        <v>39.1</v>
+        <v>23.6</v>
       </c>
       <c r="C79">
-        <v>1755</v>
+        <v>2905</v>
       </c>
       <c r="D79" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E79" t="e">
+      <c r="E79">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>2905</v>
       </c>
       <c r="F79" t="e">
         <f t="shared" si="7"/>
@@ -10448,9 +10556,9 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="e">
         <f t="shared" si="9"/>
-        <v>1755</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -10458,10 +10566,10 @@
         <v>6</v>
       </c>
       <c r="B80">
-        <v>35.1</v>
+        <v>32.4</v>
       </c>
       <c r="C80">
-        <v>1760</v>
+        <v>2290</v>
       </c>
       <c r="D80" t="e">
         <f t="shared" si="5"/>
@@ -10473,7 +10581,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="7"/>
-        <v>1760</v>
+        <v>2290</v>
       </c>
       <c r="G80" t="e">
         <f t="shared" si="8"/>
@@ -10489,10 +10597,10 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>37.700000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="C81">
-        <v>2050</v>
+        <v>1755</v>
       </c>
       <c r="D81" t="e">
         <f t="shared" si="5"/>
@@ -10512,275 +10620,275 @@
       </c>
       <c r="H81">
         <f t="shared" si="9"/>
-        <v>2050</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>34.4</v>
+        <v>35.1</v>
       </c>
       <c r="C82">
-        <v>2045</v>
+        <v>1760</v>
       </c>
       <c r="D82" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>1760</v>
+      </c>
+      <c r="G82" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H82" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C83">
+        <v>2050</v>
+      </c>
+      <c r="D83" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F83" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G83" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>34.4</v>
+      </c>
+      <c r="C84">
+        <v>2045</v>
+      </c>
+      <c r="D84" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="6"/>
         <v>2045</v>
       </c>
-      <c r="F82" t="e">
+      <c r="F84" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G82" t="e">
+      <c r="G84" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H82" t="e">
+      <c r="H84" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B83">
+      <c r="B85">
         <v>29.9</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <v>2380</v>
       </c>
-      <c r="D83" t="e">
+      <c r="D85" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E83">
+      <c r="E85">
         <f t="shared" si="6"/>
         <v>2380</v>
       </c>
-      <c r="F83" t="e">
+      <c r="F85" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G83" t="e">
+      <c r="G85" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H83" t="e">
+      <c r="H85" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>6</v>
       </c>
-      <c r="B84">
+      <c r="B86">
         <v>33.700000000000003</v>
       </c>
-      <c r="C84">
+      <c r="C86">
         <v>2210</v>
       </c>
-      <c r="D84" t="e">
+      <c r="D86" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E84" t="e">
+      <c r="E86" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F84">
+      <c r="F86">
         <f t="shared" si="7"/>
         <v>2210</v>
       </c>
-      <c r="G84" t="e">
+      <c r="G86" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H84" t="e">
+      <c r="H86" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>4</v>
       </c>
-      <c r="B85">
+      <c r="B87">
         <v>32.4</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <v>2350</v>
       </c>
-      <c r="D85" t="e">
+      <c r="D87" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E85" t="e">
+      <c r="E87" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F85" t="e">
+      <c r="F87" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G85" t="e">
+      <c r="G87" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H85">
+      <c r="H87">
         <f t="shared" si="9"/>
         <v>2350</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>4</v>
       </c>
-      <c r="B86">
+      <c r="B88">
         <v>25.4</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>2900</v>
       </c>
-      <c r="D86" t="e">
+      <c r="D88" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E86" t="e">
+      <c r="E88" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F86" t="e">
+      <c r="F88" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G86" t="e">
+      <c r="G88" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H86">
+      <c r="H88">
         <f t="shared" si="9"/>
         <v>2900</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>3</v>
       </c>
-      <c r="B87">
+      <c r="B89">
         <v>20.2</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <v>3060</v>
       </c>
-      <c r="D87" t="e">
+      <c r="D89" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E87">
+      <c r="E89">
         <f t="shared" si="6"/>
         <v>3060</v>
       </c>
-      <c r="F87" t="e">
+      <c r="F89" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G87" t="e">
+      <c r="G89" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H87" t="e">
+      <c r="H89" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>3</v>
       </c>
-      <c r="B88">
+      <c r="B90">
         <v>24</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>2865</v>
       </c>
-      <c r="D88" t="e">
+      <c r="D90" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <f t="shared" si="6"/>
         <v>2865</v>
       </c>
-      <c r="F88" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89">
-        <v>36</v>
-      </c>
-      <c r="C89">
-        <v>2205</v>
-      </c>
-      <c r="D89" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E89" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="7"/>
-        <v>2205</v>
-      </c>
-      <c r="G89" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H89" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90">
-        <v>34</v>
-      </c>
-      <c r="C90">
-        <v>2245</v>
-      </c>
-      <c r="D90" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E90" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
       <c r="F90" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -10789,9 +10897,9 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="e">
         <f t="shared" si="9"/>
-        <v>2245</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -10799,10 +10907,10 @@
         <v>6</v>
       </c>
       <c r="B91">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C91">
-        <v>1965</v>
+        <v>2205</v>
       </c>
       <c r="D91" t="e">
         <f t="shared" si="5"/>
@@ -10814,7 +10922,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="7"/>
-        <v>1965</v>
+        <v>2205</v>
       </c>
       <c r="G91" t="e">
         <f t="shared" si="8"/>
@@ -10827,13 +10935,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B92">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>1965</v>
+        <v>2245</v>
       </c>
       <c r="D92" t="e">
         <f t="shared" si="5"/>
@@ -10843,41 +10951,41 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="9"/>
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>38</v>
+      </c>
+      <c r="C93">
+        <v>1965</v>
+      </c>
+      <c r="D93" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E93" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="7"/>
         <v>1965</v>
       </c>
-      <c r="G92" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93">
-        <v>22</v>
-      </c>
-      <c r="C93">
-        <v>2835</v>
-      </c>
-      <c r="D93" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="6"/>
-        <v>2835</v>
-      </c>
-      <c r="F93" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
       <c r="G93" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
@@ -10889,13 +10997,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <v>32</v>
       </c>
       <c r="C94">
-        <v>2665</v>
+        <v>1965</v>
       </c>
       <c r="D94" t="e">
         <f t="shared" si="5"/>
@@ -10905,17 +11013,17 @@
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="F94" t="e">
+      <c r="F94">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
+        <v>1965</v>
       </c>
       <c r="G94" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="e">
         <f t="shared" si="9"/>
-        <v>2665</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -10923,10 +11031,10 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C95">
-        <v>2790</v>
+        <v>2835</v>
       </c>
       <c r="D95" t="e">
         <f t="shared" si="5"/>
@@ -10934,7 +11042,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="6"/>
-        <v>2790</v>
+        <v>2835</v>
       </c>
       <c r="F95" t="e">
         <f t="shared" si="7"/>
@@ -10951,38 +11059,101 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B96">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C96">
-        <v>2625</v>
+        <v>2665</v>
       </c>
       <c r="D96" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="9"/>
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>2790</v>
+      </c>
+      <c r="D97" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>2790</v>
+      </c>
+      <c r="F97" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <v>2625</v>
+      </c>
+      <c r="D98" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="6"/>
         <v>2625</v>
       </c>
-      <c r="F96" t="e">
+      <c r="F98" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="G96" t="e">
+      <c r="G98" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H96" t="e">
+      <c r="H98" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/cars-sample_Excel_scatterplot.xlsx
+++ b/Excel/cars-sample_Excel_scatterplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenericFiles\Documents\573\02-datavis-7ways-1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28215E-0F22-43A4-A83D-5079E51B3ED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BE31B2-680A-425A-A791-E838D754C8D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScatterPlot" sheetId="1" r:id="rId1"/>
